--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,22 +201,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,9 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +241,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -263,8 +250,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -280,29 +271,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -438,13 +406,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -462,6 +423,32 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -476,15 +463,1203 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fa-IR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Remaining Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Remaining Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="400877544"/>
+        <c:axId val="400877152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="400877544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fa-IR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400877152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="400877152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Remaining</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> effort</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fa-IR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400877544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fa-IR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fa-IR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1813560</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:G14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:G14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A6:G14"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="day" dataDxfId="7"/>
-    <tableColumn id="2" name="Member 1" dataDxfId="6"/>
-    <tableColumn id="3" name="Member 2" dataDxfId="5"/>
-    <tableColumn id="4" name="Member 3" dataDxfId="4"/>
-    <tableColumn id="5" name="Total Actual Daily Effort" dataDxfId="3"/>
+    <tableColumn id="1" name="day" dataDxfId="6"/>
+    <tableColumn id="2" name="Member 1" dataDxfId="5"/>
+    <tableColumn id="3" name="Member 2" dataDxfId="4"/>
+    <tableColumn id="4" name="Member 3" dataDxfId="3"/>
+    <tableColumn id="5" name="Total Actual Daily Effort" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" name="Actual Remaining Effort" dataDxfId="2"/>
     <tableColumn id="7" name="Estimated Remaining Effort" dataDxfId="1"/>
   </tableColumns>
@@ -782,7 +1957,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -795,30 +1970,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10">
+        <f>SUM(Table1[Total Actual Daily Effort])</f>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10">
+        <f>B1/B2</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
     </row>
@@ -852,9 +2033,16 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -863,11 +2051,24 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G8" s="6">
+        <f>G7-3.5</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -876,9 +2077,18 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G9" s="6">
+        <f>G8-3.5</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -887,9 +2097,18 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" ref="G10:G14" si="0">G9-3.5</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -898,9 +2117,18 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -909,11 +2137,22 @@
       <c r="B12" s="5">
         <v>2.5</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>2.5</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>17.5</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -922,11 +2161,22 @@
       <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="5">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>11.5</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -935,16 +2185,30 @@
       <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8">
+        <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
+        <v>11.5</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="175" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,9 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,57 +235,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="175" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -620,28 +612,28 @@
             <c:numRef>
               <c:f>Sheet1!$G$7:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>15.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>12.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>10.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>7.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5.1428571428571441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5</c:v>
+                  <c:v>2.5714285714285725</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -735,25 +727,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -771,11 +763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400877544"/>
-        <c:axId val="400877152"/>
+        <c:axId val="318081128"/>
+        <c:axId val="318087008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400877544"/>
+        <c:axId val="318081128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,12 +880,12 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400877152"/>
+        <c:crossAx val="318087008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400877152"/>
+        <c:axId val="318087008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +966,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1011,7 +1003,7 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400877544"/>
+        <c:crossAx val="318081128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1657,11 +1649,11 @@
     <tableColumn id="2" name="Member 1" dataDxfId="5"/>
     <tableColumn id="3" name="Member 2" dataDxfId="4"/>
     <tableColumn id="4" name="Member 3" dataDxfId="3"/>
-    <tableColumn id="5" name="Total Actual Daily Effort" dataDxfId="0">
+    <tableColumn id="5" name="Total Actual Daily Effort" dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Actual Remaining Effort" dataDxfId="2"/>
-    <tableColumn id="7" name="Estimated Remaining Effort" dataDxfId="1"/>
+    <tableColumn id="6" name="Actual Remaining Effort" dataDxfId="1"/>
+    <tableColumn id="7" name="Estimated Remaining Effort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1957,7 +1949,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1970,36 +1962,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>24.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>3.5</v>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2038,10 +2030,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>24.5</v>
+        <f>B1</f>
+        <v>18</v>
+      </c>
+      <c r="G7" s="10">
+        <f>B1</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2049,25 +2043,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G8" s="6">
-        <f>G7-3.5</f>
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="10">
+        <f>G7-B$3</f>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,11 +2073,11 @@
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G9" s="6">
-        <f>G8-3.5</f>
-        <v>17.5</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2103,11 +2093,11 @@
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" ref="G10:G14" si="0">G9-3.5</f>
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,35 +2113,33 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G11" s="6">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="5">
-        <v>2.5</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>17.5</v>
-      </c>
-      <c r="G12" s="6">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5.1428571428571441</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,10 +2147,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -2171,35 +2159,33 @@
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>11.5</v>
-      </c>
-      <c r="G13" s="6">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>2.5714285714285725</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5">
         <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -52,15 +52,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +77,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -244,7 +244,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="175" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.428571428571429</c:v>
+                  <c:v>20.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>17.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.285714285714286</c:v>
+                  <c:v>13.714285714285717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7142857142857153</c:v>
+                  <c:v>10.285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1428571428571441</c:v>
+                  <c:v>6.8571428571428594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5714285714285725</c:v>
+                  <c:v>3.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -642,6 +642,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-396D-4C32-AF55-9E397447B2BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -727,25 +732,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -754,6 +759,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-396D-4C32-AF55-9E397447B2BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -839,7 +849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fa-IR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -877,7 +887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318087008"/>
@@ -962,7 +972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fa-IR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1000,7 +1010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318081128"/>
@@ -1043,7 +1053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1073,7 +1083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1948,17 +1958,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>2.5714285714285716</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,20 +2041,18 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -2053,11 +2061,11 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>15.428571428571429</v>
+        <v>20.571428571428573</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2073,11 +2081,11 @@
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>12.857142857142858</v>
+        <v>17.142857142857146</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,11 +2101,11 @@
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>10.285714285714286</v>
+        <v>13.714285714285717</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,11 +2121,11 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>7.7142857142857153</v>
+        <v>10.285714285714288</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,9 +2133,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
@@ -2135,11 +2141,11 @@
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>5.1428571428571441</v>
+        <v>6.8571428571428594</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,18 +2158,20 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
       <c r="E13" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>2.5714285714285725</v>
+        <v>3.428571428571431</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2176,10 +2184,12 @@
       <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
       <c r="E14" s="7">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5">
         <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -60,7 +60,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +77,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fa-IR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.571428571428573</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.142857142857146</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.714285714285717</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.285714285714288</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8571428571428594</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.428571428571431</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -642,7 +642,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -732,25 +732,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -759,7 +759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -773,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318081128"/>
-        <c:axId val="318087008"/>
+        <c:axId val="393696200"/>
+        <c:axId val="393697376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318081128"/>
+        <c:axId val="393696200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fa-IR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -887,15 +887,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318087008"/>
+        <c:crossAx val="393697376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318087008"/>
+        <c:axId val="393697376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fa-IR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1010,10 +1010,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318081128"/>
+        <c:crossAx val="393696200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1053,7 +1053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fa-IR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1083,7 +1083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fa-IR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1959,16 +1959,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>3.4285714285714284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,51 +2061,55 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>20.571428571428573</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>17.142857142857146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>13.714285714285717</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,11 +2125,11 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>10.285714285714288</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,55 +2145,43 @@
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>6.8571428571428594</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>3.428571428571431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>14.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>12.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9.7142857142857135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4.8571428571428559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.4285714285714275</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -732,19 +732,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -773,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393696200"/>
-        <c:axId val="393697376"/>
+        <c:axId val="397386128"/>
+        <c:axId val="397386912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393696200"/>
+        <c:axId val="397386128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,12 +890,12 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393697376"/>
+        <c:crossAx val="397386912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393697376"/>
+        <c:axId val="397386912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393696200"/>
+        <c:crossAx val="397386128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>1</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>6</v>
+        <v>14.571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,11 +2083,11 @@
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>5</v>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,23 +2125,25 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7.2857142857142847</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
@@ -2149,7 +2151,7 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.8571428571428559</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2169,7 +2171,7 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.4285714285714275</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.571428571428571</c:v>
+                  <c:v>23.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.142857142857142</c:v>
+                  <c:v>19.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7142857142857135</c:v>
+                  <c:v>15.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2857142857142847</c:v>
+                  <c:v>11.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8571428571428559</c:v>
+                  <c:v>7.7142857142857117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4285714285714275</c:v>
+                  <c:v>3.8571428571428545</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -732,22 +732,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -773,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397386128"/>
-        <c:axId val="397386912"/>
+        <c:axId val="337905280"/>
+        <c:axId val="337905672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397386128"/>
+        <c:axId val="337905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,12 +890,12 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397386912"/>
+        <c:crossAx val="337905672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397386912"/>
+        <c:axId val="337905672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
             <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397386128"/>
+        <c:crossAx val="337905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>2.4285714285714284</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>14.571428571428571</v>
+        <v>23.142857142857142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,11 +2083,11 @@
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>12.142857142857142</v>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>9.7142857142857135</v>
+        <v>15.428571428571427</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>7.2857142857142847</v>
+        <v>11.571428571428569</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,23 +2147,25 @@
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>4.8571428571428559</v>
+        <v>7.7142857142857117</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
@@ -2171,14 +2173,16 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>2.4285714285714275</v>
+        <v>3.8571428571428545</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7">

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -60,7 +60,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +77,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.142857142857142</c:v>
+                  <c:v>34.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.285714285714285</c:v>
+                  <c:v>28.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.428571428571427</c:v>
+                  <c:v>22.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.571428571428569</c:v>
+                  <c:v>17.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7142857142857117</c:v>
+                  <c:v>11.428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8571428571428545</c:v>
+                  <c:v>5.7142857142857091</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -642,7 +642,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -732,25 +732,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -759,7 +759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -849,7 +849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fa-IR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -887,7 +887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="337905672"/>
@@ -972,7 +972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fa-IR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1010,7 +1010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fa-IR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="337905280"/>
@@ -1053,7 +1053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1083,7 +1083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fa-IR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1959,16 +1959,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>3.8571428571428572</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>23.142857142857142</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,11 +2083,11 @@
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>19.285714285714285</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>15.428571428571427</v>
+        <v>22.857142857142854</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2118,18 +2118,20 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
       <c r="E11" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>11.571428571428569</v>
+        <v>17.142857142857139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,18 +2142,20 @@
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
       <c r="E12" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>7.7142857142857117</v>
+        <v>11.428571428571423</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,18 +2166,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
       <c r="E13" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>3.8571428571428545</v>
+        <v>5.7142857142857091</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,10 +2190,12 @@
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
       <c r="E14" s="7">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5">
         <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>

--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -60,7 +60,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +68,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +77,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fa-IR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -615,25 +615,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.285714285714285</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.571428571428569</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.857142857142854</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.142857142857139</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.428571428571423</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7142857142857091</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -642,7 +642,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -732,25 +732,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -759,7 +759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-396D-4C32-AF55-9E397447B2BE}"/>
             </c:ext>
@@ -773,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337905280"/>
-        <c:axId val="337905672"/>
+        <c:axId val="341742944"/>
+        <c:axId val="341739416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337905280"/>
+        <c:axId val="341742944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fa-IR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -887,15 +887,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337905672"/>
+        <c:crossAx val="341739416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337905672"/>
+        <c:axId val="341739416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fa-IR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1010,10 +1010,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fa-IR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337905280"/>
+        <c:crossAx val="341742944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1053,7 +1053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fa-IR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1083,7 +1083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fa-IR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1959,16 +1959,16 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B1" s="9">
         <f>SUM(Table1[Total Actual Daily Effort])</f>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="9">
         <f>B1/B2</f>
-        <v>5.7142857142857144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="5">
         <f>B1</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10">
         <f>B1</f>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="F8" s="5">
         <f>F7-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10">
         <f>G7-B$3</f>
-        <v>34.285714285714285</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,19 +2075,21 @@
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5">
         <f>F8-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:G14" si="0">G8-B$3</f>
-        <v>28.571428571428569</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2097,19 +2099,21 @@
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5">
         <f>F9-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>22.857142857142854</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,11 +2131,11 @@
       </c>
       <c r="F11" s="5">
         <f>F10-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>17.142857142857139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,13 +2145,15 @@
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5">
         <f>F11-Table1[[#This Row],[Total Actual Daily Effort]]</f>
@@ -2155,7 +2161,7 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>11.428571428571423</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,23 +2169,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="5">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5">
         <f>F12-Table1[[#This Row],[Total Actual Daily Effort]]</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>5.7142857142857091</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,13 +2197,15 @@
       <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
       <c r="D14" s="7">
         <v>5</v>
       </c>
       <c r="E14" s="7">
         <f>SUM(Table1[[#This Row],[Member 1]:[Member 3]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5">
         <f>F13-Table1[[#This Row],[Total Actual Daily Effort]]</f>
